--- a/ARA DATA Wait Lists Feb 2021.xlsx
+++ b/ARA DATA Wait Lists Feb 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camer\Software&amp;Databases\DE103\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1315D81-48F5-4C8E-8E53-3464A2E28369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E45748-8517-4508-97F1-B43BAF489B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3982" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3974" uniqueCount="712">
   <si>
     <t>Referral Date</t>
   </si>
@@ -1348,27 +1348,6 @@
     <t>06/07/1756</t>
   </si>
   <si>
-    <t>Identified anomalies</t>
-  </si>
-  <si>
-    <t>Duplicate NHI Numbers are to be removed from the data set as they connet be resolved without extra data. Both rows will be removed beause there is no way to determine which one is more legitimate.</t>
-  </si>
-  <si>
-    <t>Any patient with a DOB prior to 1903, the year of birth of the oldest person alive, is considered an anomaly.</t>
-  </si>
-  <si>
-    <t>Department names entered with trailing whitespace.</t>
-  </si>
-  <si>
-    <t>Patients with a DOB after August 2021 are considered an anomaly.</t>
-  </si>
-  <si>
-    <t>An unamed column is redundant and is to be removed</t>
-  </si>
-  <si>
-    <t>Year-Month is a redundant column and is to be removed</t>
-  </si>
-  <si>
     <t>Surgeon First Name</t>
   </si>
   <si>
@@ -2198,9 +2177,6 @@
   </si>
   <si>
     <t>Age at Referral</t>
-  </si>
-  <si>
-    <t>Patients ineligible for the health target are removed</t>
   </si>
   <si>
     <t>Days on waitlist</t>
@@ -2214,7 +2190,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2242,13 +2218,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2258,7 +2227,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2270,8 +2239,14 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2279,92 +2254,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -2387,54 +2282,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2444,6 +2298,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -25893,10 +25748,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25917,7 +25772,7 @@
     <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -25959,7 +25814,7 @@
       </c>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>224</v>
       </c>
@@ -26002,21 +25857,8 @@
       <c r="N2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="32" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="34"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>234</v>
       </c>
@@ -26059,21 +25901,8 @@
       <c r="N3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="35" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="37"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>233</v>
       </c>
@@ -26116,19 +25945,8 @@
       <c r="N4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="37"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>235</v>
       </c>
@@ -26171,21 +25989,8 @@
       <c r="N5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="38" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="40"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>259</v>
       </c>
@@ -26228,21 +26033,8 @@
       <c r="N6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="P6" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="40"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>142</v>
       </c>
@@ -26285,21 +26077,8 @@
       <c r="N7" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="P7" s="41" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="43"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>229</v>
       </c>
@@ -26342,21 +26121,8 @@
       <c r="N8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P8" s="41" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="43"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>232</v>
       </c>
@@ -26399,21 +26165,8 @@
       <c r="N9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="27" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="29"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>125</v>
       </c>
@@ -26456,21 +26209,8 @@
       <c r="N10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P10" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>260</v>
       </c>
@@ -26514,7 +26254,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>245</v>
       </c>
@@ -26558,7 +26298,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>252</v>
       </c>
@@ -26600,7 +26340,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>212</v>
       </c>
@@ -26644,7 +26384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>258</v>
       </c>
@@ -26688,7 +26428,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>268</v>
       </c>
@@ -27129,46 +26869,46 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="16">
         <v>23786</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="17">
         <v>42208</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="17">
         <v>42412</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" s="13" t="s">
         <v>170</v>
       </c>
     </row>
@@ -27297,7 +27037,7 @@
       <c r="L29" s="17">
         <v>42616</v>
       </c>
-      <c r="M29" s="14" t="s">
+      <c r="M29" s="30" t="s">
         <v>327</v>
       </c>
       <c r="N29" s="13">
@@ -30466,16 +30206,6 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N101">
     <sortCondition ref="G2:G101"/>
   </sortState>
-  <mergeCells count="8">
-    <mergeCell ref="P9:Z9"/>
-    <mergeCell ref="P10:Z10"/>
-    <mergeCell ref="P2:Z2"/>
-    <mergeCell ref="P3:Z4"/>
-    <mergeCell ref="P5:Z5"/>
-    <mergeCell ref="P6:Z6"/>
-    <mergeCell ref="P7:Z7"/>
-    <mergeCell ref="P8:Z8"/>
-  </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
@@ -30519,19 +30249,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -30546,10 +30276,10 @@
         <v>314</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>324</v>
@@ -30564,19 +30294,19 @@
         <v>297</v>
       </c>
       <c r="C2" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="D2" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="E2" t="s">
         <v>129</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="H2" s="11">
         <v>26343</v>
@@ -30591,10 +30321,10 @@
         <v>42188</v>
       </c>
       <c r="L2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="M2" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="N2" s="5">
         <v>42240</v>
@@ -30608,19 +30338,19 @@
         <v>297</v>
       </c>
       <c r="C3" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="D3" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="E3" t="s">
         <v>80</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="H3" s="11">
         <v>33965</v>
@@ -30635,10 +30365,10 @@
         <v>42188</v>
       </c>
       <c r="L3" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="M3" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="N3" s="5">
         <v>42277</v>
@@ -30652,19 +30382,19 @@
         <v>297</v>
       </c>
       <c r="C4" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="D4" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="E4" t="s">
         <v>50</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="H4" s="11">
         <v>18737</v>
@@ -30679,10 +30409,10 @@
         <v>42191</v>
       </c>
       <c r="L4" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="M4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="N4" s="5">
         <v>42209</v>
@@ -30696,19 +30426,19 @@
         <v>297</v>
       </c>
       <c r="C5" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="D5" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="E5" t="s">
         <v>177</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="H5" s="11">
         <v>22765</v>
@@ -30723,10 +30453,10 @@
         <v>42198</v>
       </c>
       <c r="L5" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="M5" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="N5" s="5">
         <v>42273</v>
@@ -30740,19 +30470,19 @@
         <v>297</v>
       </c>
       <c r="C6" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="D6" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="E6" t="s">
         <v>149</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="H6" s="11">
         <v>32802</v>
@@ -30767,10 +30497,10 @@
         <v>42201</v>
       </c>
       <c r="L6" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="M6" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="N6" s="5">
         <v>42280</v>
@@ -30784,19 +30514,19 @@
         <v>297</v>
       </c>
       <c r="C7" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="D7" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="E7" t="s">
         <v>87</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="H7" s="11">
         <v>24871</v>
@@ -30811,10 +30541,10 @@
         <v>42220</v>
       </c>
       <c r="L7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="M7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="N7" s="5">
         <v>42220</v>
@@ -30828,19 +30558,19 @@
         <v>297</v>
       </c>
       <c r="C8" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="D8" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="E8" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="H8" s="11">
         <v>17827</v>
@@ -30855,10 +30585,10 @@
         <v>42231</v>
       </c>
       <c r="L8" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="M8" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="N8" s="5">
         <v>42239</v>
@@ -30872,19 +30602,19 @@
         <v>297</v>
       </c>
       <c r="C9" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D9" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="E9" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="H9" s="11">
         <v>27605</v>
@@ -30899,10 +30629,10 @@
         <v>42234</v>
       </c>
       <c r="L9" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="M9" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="N9" s="5">
         <v>42296</v>
@@ -30916,19 +30646,19 @@
         <v>297</v>
       </c>
       <c r="C10" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="D10" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="E10" t="s">
         <v>95</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="H10" s="11">
         <v>39645</v>
@@ -30943,10 +30673,10 @@
         <v>42236</v>
       </c>
       <c r="L10" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="M10" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="N10" s="5">
         <v>42255</v>
@@ -30960,19 +30690,19 @@
         <v>297</v>
       </c>
       <c r="C11" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="D11" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="E11" t="s">
         <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="H11" s="11">
         <v>38646</v>
@@ -30987,10 +30717,10 @@
         <v>42248</v>
       </c>
       <c r="L11" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="M11" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="N11" s="5">
         <v>42298</v>
@@ -31004,19 +30734,19 @@
         <v>329</v>
       </c>
       <c r="C12" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="D12" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="E12" t="s">
         <v>163</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="H12" s="11">
         <v>27857</v>
@@ -31031,10 +30761,10 @@
         <v>42252</v>
       </c>
       <c r="L12" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="M12" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="N12" s="5">
         <v>42343</v>
@@ -31048,19 +30778,19 @@
         <v>297</v>
       </c>
       <c r="C13" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="D13" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="E13" t="s">
         <v>134</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="H13" s="11">
         <v>41392</v>
@@ -31075,10 +30805,10 @@
         <v>42252</v>
       </c>
       <c r="L13" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="M13" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="N13" s="5">
         <v>42291</v>
@@ -31092,19 +30822,19 @@
         <v>297</v>
       </c>
       <c r="C14" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="D14" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="E14" t="s">
         <v>157</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H14" s="11">
         <v>20984</v>
@@ -31119,10 +30849,10 @@
         <v>42251</v>
       </c>
       <c r="L14" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="M14" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="N14" s="5">
         <v>42276</v>
@@ -31136,19 +30866,19 @@
         <v>297</v>
       </c>
       <c r="C15" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="D15" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="H15" s="11">
         <v>41785</v>
@@ -31163,10 +30893,10 @@
         <v>42255</v>
       </c>
       <c r="L15" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="M15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="N15" s="5">
         <v>42313</v>
@@ -31180,19 +30910,19 @@
         <v>297</v>
       </c>
       <c r="C16" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="D16" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="H16" s="11">
         <v>22327</v>
@@ -31207,10 +30937,10 @@
         <v>42256</v>
       </c>
       <c r="L16" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="M16" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="N16" s="5">
         <v>42322</v>
@@ -31224,19 +30954,19 @@
         <v>297</v>
       </c>
       <c r="C17" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="D17" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="E17" t="s">
         <v>132</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="H17" s="11">
         <v>42375</v>
@@ -31251,10 +30981,10 @@
         <v>42274</v>
       </c>
       <c r="L17" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="M17" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="N17" s="5">
         <v>42341</v>
@@ -31268,19 +30998,19 @@
         <v>297</v>
       </c>
       <c r="C18" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D18" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E18" t="s">
         <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="H18" s="11">
         <v>24627</v>
@@ -31295,10 +31025,10 @@
         <v>42281</v>
       </c>
       <c r="L18" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="M18" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="N18" s="5">
         <v>42286</v>
@@ -31312,19 +31042,19 @@
         <v>298</v>
       </c>
       <c r="C19" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D19" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="H19" s="11">
         <v>24573</v>
@@ -31339,10 +31069,10 @@
         <v>42283</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="N19" s="5">
         <v>42369</v>
@@ -31356,19 +31086,19 @@
         <v>298</v>
       </c>
       <c r="C20" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="D20" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="E20" t="s">
         <v>191</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="H20" s="11">
         <v>28403</v>
@@ -31383,10 +31113,10 @@
         <v>42294</v>
       </c>
       <c r="L20" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="M20" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="N20" s="5">
         <v>42358</v>
@@ -31400,19 +31130,19 @@
         <v>297</v>
       </c>
       <c r="C21" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="D21" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="E21" t="s">
         <v>84</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="H21" s="11">
         <v>37966</v>
@@ -31427,10 +31157,10 @@
         <v>42295</v>
       </c>
       <c r="L21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="M21" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="N21" s="5">
         <v>42303</v>
@@ -31444,19 +31174,19 @@
         <v>297</v>
       </c>
       <c r="C22" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="D22" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="E22" t="s">
         <v>54</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="H22" s="11">
         <v>30916</v>
@@ -31471,10 +31201,10 @@
         <v>42302</v>
       </c>
       <c r="L22" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="M22" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="N22" s="5">
         <v>42343</v>
@@ -31488,19 +31218,19 @@
         <v>297</v>
       </c>
       <c r="C23" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D23" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E23" t="s">
         <v>67</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="H23" s="11">
         <v>38973</v>
@@ -31515,10 +31245,10 @@
         <v>42302</v>
       </c>
       <c r="L23" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="M23" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="N23" s="5">
         <v>42659</v>
@@ -31532,19 +31262,19 @@
         <v>297</v>
       </c>
       <c r="C24" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="D24" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="E24" t="s">
         <v>73</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H24" s="11">
         <v>19044</v>
@@ -31559,10 +31289,10 @@
         <v>42316</v>
       </c>
       <c r="L24" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="M24" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="N24" s="5">
         <v>42372</v>
@@ -31576,19 +31306,19 @@
         <v>297</v>
       </c>
       <c r="C25" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D25" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="H25" s="11">
         <v>40516</v>
@@ -31603,10 +31333,10 @@
         <v>42319</v>
       </c>
       <c r="L25" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="M25" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="N25" s="5">
         <v>42408</v>
@@ -31620,19 +31350,19 @@
         <v>297</v>
       </c>
       <c r="C26" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D26" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="H26" s="11">
         <v>41266</v>
@@ -31647,10 +31377,10 @@
         <v>42320</v>
       </c>
       <c r="L26" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="M26" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="N26" s="5">
         <v>42375</v>
@@ -31664,19 +31394,19 @@
         <v>297</v>
       </c>
       <c r="C27" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="D27" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="E27" t="s">
         <v>99</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="H27" s="11">
         <v>40305</v>
@@ -31691,10 +31421,10 @@
         <v>42323</v>
       </c>
       <c r="L27" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="M27" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="N27" s="5">
         <v>42350</v>
@@ -31708,19 +31438,19 @@
         <v>297</v>
       </c>
       <c r="C28" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="D28" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="E28" t="s">
         <v>75</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="H28" s="11">
         <v>23051</v>
@@ -31735,10 +31465,10 @@
         <v>42328</v>
       </c>
       <c r="L28" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="M28" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="N28" s="5">
         <v>42369</v>
@@ -31752,19 +31482,19 @@
         <v>297</v>
       </c>
       <c r="C29" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D29" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E29" t="s">
         <v>56</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="H29" s="11">
         <v>19036</v>
@@ -31779,10 +31509,10 @@
         <v>42326</v>
       </c>
       <c r="L29" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="M29" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="N29" s="5">
         <v>42389</v>
@@ -31796,19 +31526,19 @@
         <v>297</v>
       </c>
       <c r="C30" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D30" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E30" t="s">
         <v>126</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="H30" s="11">
         <v>23935</v>
@@ -31823,10 +31553,10 @@
         <v>42336</v>
       </c>
       <c r="L30" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="M30" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="N30" s="5">
         <v>42421</v>
@@ -31840,19 +31570,19 @@
         <v>297</v>
       </c>
       <c r="C31" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="D31" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="E31" t="s">
         <v>165</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="H31" s="11">
         <v>31929</v>
@@ -31867,10 +31597,10 @@
         <v>42341</v>
       </c>
       <c r="L31" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="M31" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="N31" s="5">
         <v>42387</v>
@@ -31884,19 +31614,19 @@
         <v>297</v>
       </c>
       <c r="C32" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="D32" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="E32" t="s">
         <v>172</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="H32" s="11">
         <v>39614</v>
@@ -31911,10 +31641,10 @@
         <v>42344</v>
       </c>
       <c r="L32" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="M32" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="N32" s="5"/>
     </row>
@@ -31926,19 +31656,19 @@
         <v>297</v>
       </c>
       <c r="C33" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D33" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="E33" t="s">
         <v>26</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="H33" s="11">
         <v>40071</v>
@@ -31953,10 +31683,10 @@
         <v>42345</v>
       </c>
       <c r="L33" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="M33" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="N33" s="5">
         <v>42425</v>
@@ -31970,19 +31700,19 @@
         <v>297</v>
       </c>
       <c r="C34" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D34" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E34" t="s">
         <v>77</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="H34" s="11">
         <v>26569</v>
@@ -31997,10 +31727,10 @@
         <v>42346</v>
       </c>
       <c r="L34" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="M34" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="N34" s="5">
         <v>42418</v>
@@ -32014,19 +31744,19 @@
         <v>297</v>
       </c>
       <c r="C35" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="D35" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="E35" t="s">
         <v>155</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="H35" s="11">
         <v>21146</v>
@@ -32041,10 +31771,10 @@
         <v>42371</v>
       </c>
       <c r="L35" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="M35" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="N35" s="5">
         <v>42409</v>
@@ -32058,19 +31788,19 @@
         <v>297</v>
       </c>
       <c r="C36" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="D36" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="E36" t="s">
         <v>63</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="H36" s="11">
         <v>18140</v>
@@ -32085,10 +31815,10 @@
         <v>42372</v>
       </c>
       <c r="L36" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M36" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="N36" s="5">
         <v>42402</v>
@@ -32102,19 +31832,19 @@
         <v>298</v>
       </c>
       <c r="C37" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="D37" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="E37" t="s">
         <v>116</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="H37" s="11">
         <v>18722</v>
@@ -32129,10 +31859,10 @@
         <v>42375</v>
       </c>
       <c r="L37" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="M37" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="N37" s="5">
         <v>42427</v>
@@ -32146,19 +31876,19 @@
         <v>297</v>
       </c>
       <c r="C38" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D38" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="E38" t="s">
         <v>167</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="H38" s="11">
         <v>23849</v>
@@ -32173,10 +31903,10 @@
         <v>42377</v>
       </c>
       <c r="L38" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="M38" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="N38" s="5">
         <v>42429</v>
@@ -32190,19 +31920,19 @@
         <v>297</v>
       </c>
       <c r="C39" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="D39" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="E39" t="s">
         <v>114</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="H39" s="11">
         <v>20794</v>
@@ -32217,10 +31947,10 @@
         <v>42383</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="N39" s="5"/>
     </row>
@@ -32232,19 +31962,19 @@
         <v>297</v>
       </c>
       <c r="C40" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="D40" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="E40" t="s">
         <v>17</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="H40" s="11">
         <v>31726</v>
@@ -32259,10 +31989,10 @@
         <v>42392</v>
       </c>
       <c r="L40" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="M40" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="N40" s="5">
         <v>42452</v>
@@ -32276,19 +32006,19 @@
         <v>297</v>
       </c>
       <c r="C41" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="D41" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="E41" t="s">
         <v>71</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="H41" s="11">
         <v>39384</v>
@@ -32303,10 +32033,10 @@
         <v>42396</v>
       </c>
       <c r="L41" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="M41" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="N41" s="5">
         <v>42434</v>
@@ -32320,19 +32050,19 @@
         <v>328</v>
       </c>
       <c r="C42" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="D42" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="E42" t="s">
         <v>106</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="H42" s="11">
         <v>22924</v>
@@ -32347,10 +32077,10 @@
         <v>42404</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="N42" s="5">
         <v>42451</v>
@@ -32364,19 +32094,19 @@
         <v>298</v>
       </c>
       <c r="C43" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="D43" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="E43" t="s">
         <v>32</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="H43" s="11">
         <v>32627</v>
@@ -32391,10 +32121,10 @@
         <v>42403</v>
       </c>
       <c r="L43" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="M43" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="N43" s="5">
         <v>42438</v>
@@ -32408,19 +32138,19 @@
         <v>297</v>
       </c>
       <c r="C44" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="D44" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="E44" t="s">
         <v>143</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="H44" s="11">
         <v>24876</v>
@@ -32435,10 +32165,10 @@
         <v>42407</v>
       </c>
       <c r="L44" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="M44" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="N44" s="5">
         <v>42445</v>
@@ -32452,19 +32182,19 @@
         <v>297</v>
       </c>
       <c r="C45" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="D45" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="E45" t="s">
         <v>145</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="H45" s="11">
         <v>22410</v>
@@ -32479,10 +32209,10 @@
         <v>42408</v>
       </c>
       <c r="L45" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="M45" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="N45" s="5">
         <v>42410</v>
@@ -32496,19 +32226,19 @@
         <v>297</v>
       </c>
       <c r="C46" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="D46" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="E46" t="s">
         <v>101</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="H46" s="11">
         <v>38319</v>
@@ -32523,10 +32253,10 @@
         <v>42415</v>
       </c>
       <c r="L46" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="M46" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="N46" s="5">
         <v>42619</v>
@@ -32540,19 +32270,19 @@
         <v>297</v>
       </c>
       <c r="C47" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="D47" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="E47" t="s">
         <v>105</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="H47" s="11">
         <v>30055</v>
@@ -32567,10 +32297,10 @@
         <v>42421</v>
       </c>
       <c r="L47" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="M47" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="N47" s="5">
         <v>42485</v>
@@ -32584,19 +32314,19 @@
         <v>297</v>
       </c>
       <c r="C48" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D48" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E48" t="s">
         <v>185</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="H48" s="11">
         <v>27912</v>
@@ -32611,10 +32341,10 @@
         <v>42424</v>
       </c>
       <c r="L48" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="M48" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="N48" s="5">
         <v>42506</v>
@@ -32628,19 +32358,19 @@
         <v>298</v>
       </c>
       <c r="C49" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="D49" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="E49" t="s">
         <v>82</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="H49" s="11">
         <v>28037</v>
@@ -32655,10 +32385,10 @@
         <v>42425</v>
       </c>
       <c r="L49" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="M49" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="N49" s="5">
         <v>42497</v>
@@ -32672,19 +32402,19 @@
         <v>297</v>
       </c>
       <c r="C50" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="D50" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="E50" t="s">
         <v>42</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="H50" s="11">
         <v>38495</v>
@@ -32699,10 +32429,10 @@
         <v>42424</v>
       </c>
       <c r="L50" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="M50" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="N50" s="5">
         <v>42445</v>
@@ -32716,19 +32446,19 @@
         <v>328</v>
       </c>
       <c r="C51" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="D51" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="E51" t="s">
         <v>108</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="H51" s="11">
         <v>22510</v>
@@ -32743,10 +32473,10 @@
         <v>42437</v>
       </c>
       <c r="L51" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="M51" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="N51" s="5">
         <v>42457</v>
@@ -32760,19 +32490,19 @@
         <v>297</v>
       </c>
       <c r="C52" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D52" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="E52" t="s">
         <v>93</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="H52" s="11">
         <v>31525</v>
@@ -32787,10 +32517,10 @@
         <v>42440</v>
       </c>
       <c r="L52" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="M52" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="N52" s="5">
         <v>42498</v>
@@ -32804,19 +32534,19 @@
         <v>297</v>
       </c>
       <c r="C53" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="D53" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="E53" t="s">
         <v>45</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="H53" s="11">
         <v>31398</v>
@@ -32831,10 +32561,10 @@
         <v>42450</v>
       </c>
       <c r="L53" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="M53" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="N53" s="5">
         <v>42450</v>
@@ -32848,19 +32578,19 @@
         <v>297</v>
       </c>
       <c r="C54" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="D54" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="E54" t="s">
         <v>34</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="H54" s="11">
         <v>29962</v>
@@ -32875,10 +32605,10 @@
         <v>42450</v>
       </c>
       <c r="L54" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="M54" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="N54" s="5">
         <v>42506</v>
@@ -32892,19 +32622,19 @@
         <v>297</v>
       </c>
       <c r="C55" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D55" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H55" s="11">
         <v>20861</v>
@@ -32919,10 +32649,10 @@
         <v>42457</v>
       </c>
       <c r="L55" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="M55" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="N55" s="5">
         <v>42472</v>
@@ -32936,19 +32666,19 @@
         <v>297</v>
       </c>
       <c r="C56" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="D56" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="E56" t="s">
         <v>38</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="H56" s="11">
         <v>17683</v>
@@ -32963,10 +32693,10 @@
         <v>42458</v>
       </c>
       <c r="L56" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="M56" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="N56" s="5">
         <v>42502</v>
@@ -32980,19 +32710,19 @@
         <v>297</v>
       </c>
       <c r="C57" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="D57" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="E57" t="s">
         <v>159</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="H57" s="11">
         <v>19156</v>
@@ -33007,10 +32737,10 @@
         <v>42459</v>
       </c>
       <c r="L57" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="M57" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="N57" s="5">
         <v>42508</v>
@@ -33024,19 +32754,19 @@
         <v>297</v>
       </c>
       <c r="C58" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D58" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="E58" t="s">
         <v>138</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="H58" s="11">
         <v>28305</v>
@@ -33051,10 +32781,10 @@
         <v>42457</v>
       </c>
       <c r="L58" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="M58" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="N58" s="5">
         <v>42476</v>
@@ -33068,19 +32798,19 @@
         <v>298</v>
       </c>
       <c r="C59" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D59" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="E59" t="s">
         <v>123</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="H59" s="11">
         <v>38126</v>
@@ -33095,10 +32825,10 @@
         <v>42461</v>
       </c>
       <c r="L59" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="M59" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="N59" s="5">
         <v>42505</v>
@@ -33112,19 +32842,19 @@
         <v>298</v>
       </c>
       <c r="C60" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="D60" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="E60" t="s">
         <v>189</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="H60" s="11">
         <v>39717</v>
@@ -33139,10 +32869,10 @@
         <v>42465</v>
       </c>
       <c r="L60" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="M60" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="N60" s="5">
         <v>42523</v>
@@ -33156,19 +32886,19 @@
         <v>297</v>
       </c>
       <c r="C61" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D61" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E61" t="s">
         <v>28</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="H61" s="11">
         <v>33191</v>
@@ -33183,10 +32913,10 @@
         <v>42469</v>
       </c>
       <c r="L61" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M61" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="N61" s="5">
         <v>42531</v>
@@ -33200,19 +32930,19 @@
         <v>297</v>
       </c>
       <c r="C62" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D62" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="E62" t="s">
         <v>52</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="H62" s="11">
         <v>22739</v>
@@ -33227,10 +32957,10 @@
         <v>42475</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="N62" s="5">
         <v>42559</v>
@@ -33244,19 +32974,19 @@
         <v>297</v>
       </c>
       <c r="C63" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="D63" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="E63" t="s">
         <v>68</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="H63" s="11">
         <v>29633</v>
@@ -33271,10 +33001,10 @@
         <v>42478</v>
       </c>
       <c r="L63" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="M63" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="N63" s="5">
         <v>42486</v>
@@ -33288,19 +33018,19 @@
         <v>297</v>
       </c>
       <c r="C64" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D64" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E64" t="s">
         <v>119</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="H64" s="11">
         <v>27902</v>
@@ -33315,10 +33045,10 @@
         <v>42480</v>
       </c>
       <c r="L64" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="M64" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="N64" s="5">
         <v>42552</v>
@@ -33332,19 +33062,19 @@
         <v>297</v>
       </c>
       <c r="C65" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="D65" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="E65" t="s">
         <v>91</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="H65" s="11">
         <v>25773</v>
@@ -33359,10 +33089,10 @@
         <v>42480</v>
       </c>
       <c r="L65" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="M65" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="N65" s="5">
         <v>42499</v>
@@ -33376,19 +33106,19 @@
         <v>297</v>
       </c>
       <c r="C66" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="D66" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="H66" s="11">
         <v>24451</v>
@@ -33403,10 +33133,10 @@
         <v>42479</v>
       </c>
       <c r="L66" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="M66" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="N66" s="5">
         <v>42551</v>
@@ -33420,19 +33150,19 @@
         <v>297</v>
       </c>
       <c r="C67" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="D67" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="E67" t="s">
         <v>110</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="H67" s="11">
         <v>29414</v>
@@ -33447,10 +33177,10 @@
         <v>42480</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="N67" s="5">
         <v>42535</v>
@@ -33464,19 +33194,19 @@
         <v>297</v>
       </c>
       <c r="C68" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D68" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E68" t="s">
         <v>104</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="H68" s="12">
         <v>40538</v>
@@ -33491,10 +33221,10 @@
         <v>42482</v>
       </c>
       <c r="L68" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="M68" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="N68" s="5">
         <v>42568</v>
@@ -33508,19 +33238,19 @@
         <v>298</v>
       </c>
       <c r="C69" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D69" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="E69" t="s">
         <v>22</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="H69" s="11">
         <v>26952</v>
@@ -33535,10 +33265,10 @@
         <v>42485</v>
       </c>
       <c r="L69" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="M69" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="N69" s="5"/>
     </row>
@@ -33550,19 +33280,19 @@
         <v>297</v>
       </c>
       <c r="C70" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="D70" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="E70" t="s">
         <v>147</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H70" s="11">
         <v>26789</v>
@@ -33577,10 +33307,10 @@
         <v>42487</v>
       </c>
       <c r="L70" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="M70" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="N70" s="5">
         <v>42535</v>
@@ -33594,19 +33324,19 @@
         <v>297</v>
       </c>
       <c r="C71" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D71" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="E71" t="s">
         <v>153</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="H71" s="11">
         <v>31984</v>
@@ -33621,10 +33351,10 @@
         <v>42489</v>
       </c>
       <c r="L71" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="M71" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="N71" s="5">
         <v>42559</v>
@@ -33638,19 +33368,19 @@
         <v>297</v>
       </c>
       <c r="C72" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="D72" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="E72" t="s">
         <v>136</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="H72" s="11">
         <v>18470</v>
@@ -33665,10 +33395,10 @@
         <v>42495</v>
       </c>
       <c r="L72" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="M72" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="N72" s="5">
         <v>42545</v>
@@ -33682,19 +33412,19 @@
         <v>297</v>
       </c>
       <c r="C73" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D73" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="H73" s="11">
         <v>31658</v>
@@ -33709,10 +33439,10 @@
         <v>42494</v>
       </c>
       <c r="L73" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="M73" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="N73" s="5">
         <v>42525</v>
@@ -33726,19 +33456,19 @@
         <v>298</v>
       </c>
       <c r="C74" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D74" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="E74" t="s">
         <v>89</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="H74" s="11">
         <v>27037</v>
@@ -33753,10 +33483,10 @@
         <v>42517</v>
       </c>
       <c r="L74" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="M74" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="N74" s="5">
         <v>42563</v>
@@ -33770,19 +33500,19 @@
         <v>297</v>
       </c>
       <c r="C75" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D75" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E75" t="s">
         <v>65</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H75" s="11">
         <v>25703</v>
@@ -33797,10 +33527,10 @@
         <v>42528</v>
       </c>
       <c r="L75" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="M75" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="N75" s="5">
         <v>42530</v>
@@ -33814,19 +33544,19 @@
         <v>297</v>
       </c>
       <c r="C76" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="D76" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="E76" t="s">
         <v>121</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="H76" s="11">
         <v>25561</v>
@@ -33841,10 +33571,10 @@
         <v>42538</v>
       </c>
       <c r="L76" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="M76" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="N76" s="5"/>
     </row>
@@ -33856,19 +33586,19 @@
         <v>297</v>
       </c>
       <c r="C77" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="D77" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="E77" t="s">
         <v>175</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="H77" s="11">
         <v>29091</v>
@@ -33883,10 +33613,10 @@
         <v>42538</v>
       </c>
       <c r="L77" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="M77" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="N77" s="5">
         <v>42608</v>
@@ -33900,19 +33630,19 @@
         <v>297</v>
       </c>
       <c r="C78" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="D78" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="E78" t="s">
         <v>97</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="H78" s="11">
         <v>28516</v>
@@ -33927,10 +33657,10 @@
         <v>42541</v>
       </c>
       <c r="L78" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="M78" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="N78" s="5">
         <v>42574</v>
@@ -33944,19 +33674,19 @@
         <v>297</v>
       </c>
       <c r="C79" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="D79" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="E79" t="s">
         <v>140</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="H79" s="11">
         <v>31784</v>
@@ -33971,10 +33701,10 @@
         <v>42543</v>
       </c>
       <c r="L79" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M79" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="N79" s="5">
         <v>42615</v>
@@ -33988,19 +33718,19 @@
         <v>297</v>
       </c>
       <c r="C80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D80" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E80" t="s">
         <v>27</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="H80" s="11">
         <v>38861</v>
@@ -34015,10 +33745,10 @@
         <v>42545</v>
       </c>
       <c r="L80" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="M80" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="N80" s="5">
         <v>42568</v>
@@ -34032,19 +33762,19 @@
         <v>297</v>
       </c>
       <c r="C81" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="D81" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="E81" t="s">
         <v>174</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="H81" s="12">
         <v>40754</v>
@@ -34059,10 +33789,10 @@
         <v>42544</v>
       </c>
       <c r="L81" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="M81" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="N81" s="5">
         <v>42615</v>
@@ -34076,19 +33806,19 @@
         <v>297</v>
       </c>
       <c r="C82" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="D82" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="E82" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="H82" s="11">
         <v>32642</v>
@@ -34103,10 +33833,10 @@
         <v>42548</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="N82" s="5">
         <v>42567</v>
@@ -34120,19 +33850,19 @@
         <v>297</v>
       </c>
       <c r="C83" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="D83" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="E83" t="s">
         <v>43</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="H83" s="11">
         <v>25481</v>
@@ -34147,10 +33877,10 @@
         <v>42558</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="N83" s="5">
         <v>42635</v>
@@ -34164,19 +33894,19 @@
         <v>298</v>
       </c>
       <c r="C84" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D84" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="E84" t="s">
         <v>118</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="H84" s="11">
         <v>38277</v>
@@ -34191,10 +33921,10 @@
         <v>42568</v>
       </c>
       <c r="L84" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="M84" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="N84" s="5"/>
     </row>
@@ -34206,19 +33936,19 @@
         <v>297</v>
       </c>
       <c r="C85" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="D85" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="E85" t="s">
         <v>61</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="H85" s="11">
         <v>17738</v>
@@ -34233,10 +33963,10 @@
         <v>42568</v>
       </c>
       <c r="L85" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="M85" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="N85" s="5">
         <v>42615</v>
@@ -34250,19 +33980,19 @@
         <v>297</v>
       </c>
       <c r="C86" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="D86" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="E86" t="s">
         <v>24</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="H86" s="11">
         <v>38551</v>
@@ -34277,10 +34007,10 @@
         <v>42571</v>
       </c>
       <c r="L86" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="M86" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="N86" s="5">
         <v>42660</v>
@@ -34294,19 +34024,19 @@
         <v>297</v>
       </c>
       <c r="C87" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D87" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="E87" t="s">
         <v>161</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="H87" s="11">
         <v>23209</v>
@@ -34321,10 +34051,10 @@
         <v>42574</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="M87" s="6" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="N87" s="5">
         <v>42574</v>
@@ -34338,19 +34068,19 @@
         <v>297</v>
       </c>
       <c r="C88" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D88" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E88" t="s">
         <v>112</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="H88" s="11">
         <v>25382</v>
@@ -34365,10 +34095,10 @@
         <v>42577</v>
       </c>
       <c r="L88" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="M88" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="N88" s="5">
         <v>42636</v>
@@ -34382,19 +34112,19 @@
         <v>298</v>
       </c>
       <c r="C89" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D89" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="E89" t="s">
         <v>187</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="H89" s="11">
         <v>27675</v>
@@ -34409,10 +34139,10 @@
         <v>42578</v>
       </c>
       <c r="L89" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="M89" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="N89" s="5"/>
     </row>
@@ -34424,19 +34154,19 @@
         <v>297</v>
       </c>
       <c r="C90" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D90" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="E90" t="s">
         <v>103</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="H90" s="11">
         <v>19223</v>
@@ -34451,10 +34181,10 @@
         <v>42594</v>
       </c>
       <c r="L90" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="M90" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="N90" s="5">
         <v>42636</v>
@@ -34468,19 +34198,19 @@
         <v>297</v>
       </c>
       <c r="C91" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="D91" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="E91" t="s">
         <v>130</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="H91" s="11">
         <v>29803</v>
@@ -34495,10 +34225,10 @@
         <v>42592</v>
       </c>
       <c r="L91" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="M91" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="N91" s="5">
         <v>42606</v>
@@ -34512,19 +34242,19 @@
         <v>297</v>
       </c>
       <c r="C92" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="D92" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="E92" t="s">
         <v>85</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="H92" s="11">
         <v>33711</v>
@@ -34539,10 +34269,10 @@
         <v>42595</v>
       </c>
       <c r="L92" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="M92" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="N92" s="5">
         <v>42645</v>
@@ -34587,10 +34317,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>5</v>
@@ -34604,10 +34334,10 @@
         <v>84</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="D2" s="24">
         <v>37966</v>
@@ -34621,10 +34351,10 @@
         <v>123</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="D3" s="24">
         <v>38126</v>
@@ -34638,10 +34368,10 @@
         <v>118</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="D4" s="24">
         <v>38277</v>
@@ -34655,10 +34385,10 @@
         <v>24</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="D5" s="24">
         <v>38551</v>
@@ -34672,10 +34402,10 @@
         <v>189</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="D6" s="24">
         <v>39717</v>
@@ -34689,10 +34419,10 @@
         <v>104</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="D7" s="25">
         <v>40538</v>
@@ -34706,10 +34436,10 @@
         <v>114</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="D8" s="24">
         <v>20794</v>
@@ -34723,10 +34453,10 @@
         <v>52</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="D9" s="24">
         <v>22739</v>
@@ -34740,10 +34470,10 @@
         <v>106</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="D10" s="24">
         <v>22924</v>
@@ -34757,10 +34487,10 @@
         <v>161</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="D11" s="24">
         <v>23209</v>
@@ -34774,10 +34504,10 @@
         <v>40</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D12" s="24">
         <v>24573</v>
@@ -34791,10 +34521,10 @@
         <v>43</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="D13" s="24">
         <v>25481</v>
@@ -34808,10 +34538,10 @@
         <v>110</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="D14" s="24">
         <v>29414</v>
@@ -34825,10 +34555,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="D15" s="24">
         <v>32642</v>
@@ -34842,10 +34572,10 @@
         <v>38</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D16" s="24">
         <v>17683</v>
@@ -34859,10 +34589,10 @@
         <v>87</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="D17" s="24">
         <v>24871</v>
@@ -34876,10 +34606,10 @@
         <v>65</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="D18" s="24">
         <v>25703</v>
@@ -34893,10 +34623,10 @@
         <v>93</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="D19" s="24">
         <v>31525</v>
@@ -34910,10 +34640,10 @@
         <v>191</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="D20" s="24">
         <v>28403</v>
@@ -34927,10 +34657,10 @@
         <v>175</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="D21" s="24">
         <v>29091</v>
@@ -34944,10 +34674,10 @@
         <v>32</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="D22" s="24">
         <v>32627</v>
@@ -34961,10 +34691,10 @@
         <v>95</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="D23" s="24">
         <v>39645</v>
@@ -34978,10 +34708,10 @@
         <v>159</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D24" s="24">
         <v>19156</v>
@@ -34995,10 +34725,10 @@
         <v>108</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="D25" s="24">
         <v>22510</v>
@@ -35012,10 +34742,10 @@
         <v>167</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="D26" s="24">
         <v>23849</v>
@@ -35029,10 +34759,10 @@
         <v>89</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D27" s="24">
         <v>27037</v>
@@ -35046,10 +34776,10 @@
         <v>82</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="D28" s="24">
         <v>28037</v>
@@ -35063,10 +34793,10 @@
         <v>97</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="D29" s="24">
         <v>28516</v>
@@ -35080,10 +34810,10 @@
         <v>165</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="D30" s="24">
         <v>31929</v>
@@ -35097,10 +34827,10 @@
         <v>61</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="D31" s="24">
         <v>17738</v>
@@ -35114,10 +34844,10 @@
         <v>73</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D32" s="24">
         <v>19044</v>
@@ -35131,10 +34861,10 @@
         <v>103</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="D33" s="24">
         <v>19223</v>
@@ -35148,10 +34878,10 @@
         <v>75</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="D34" s="24">
         <v>23051</v>
@@ -35165,10 +34895,10 @@
         <v>22</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="D35" s="24">
         <v>26952</v>
@@ -35182,10 +34912,10 @@
         <v>163</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="D36" s="24">
         <v>27857</v>
@@ -35199,10 +34929,10 @@
         <v>17</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="D37" s="24">
         <v>31726</v>
@@ -35216,10 +34946,10 @@
         <v>132</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="D38" s="24">
         <v>42375</v>
@@ -35233,10 +34963,10 @@
         <v>136</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D39" s="24">
         <v>18470</v>
@@ -35250,10 +34980,10 @@
         <v>48</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="D40" s="24">
         <v>24627</v>
@@ -35267,10 +34997,10 @@
         <v>130</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="D41" s="24">
         <v>29803</v>
@@ -35284,10 +35014,10 @@
         <v>45</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="D42" s="24">
         <v>31398</v>
@@ -35301,10 +35031,10 @@
         <v>85</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="D43" s="24">
         <v>33711</v>
@@ -35318,10 +35048,10 @@
         <v>99</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="D44" s="24">
         <v>40305</v>
@@ -35335,10 +35065,10 @@
         <v>42</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="D45" s="24">
         <v>38495</v>
@@ -35352,10 +35082,10 @@
         <v>172</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="D46" s="24">
         <v>39614</v>
@@ -35369,10 +35099,10 @@
         <v>26</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="D47" s="24">
         <v>40071</v>
@@ -35386,10 +35116,10 @@
         <v>25</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="D48" s="24">
         <v>40516</v>
@@ -35403,10 +35133,10 @@
         <v>174</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="D49" s="25">
         <v>40754</v>
@@ -35420,10 +35150,10 @@
         <v>134</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="D50" s="24">
         <v>41392</v>
@@ -35437,10 +35167,10 @@
         <v>36</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="D51" s="24">
         <v>41785</v>
@@ -35454,10 +35184,10 @@
         <v>101</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="D52" s="24">
         <v>38319</v>
@@ -35471,10 +35201,10 @@
         <v>72</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="D53" s="24">
         <v>38646</v>
@@ -35488,10 +35218,10 @@
         <v>27</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="D54" s="24">
         <v>38861</v>
@@ -35505,10 +35235,10 @@
         <v>67</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="D55" s="24">
         <v>38973</v>
@@ -35522,10 +35252,10 @@
         <v>71</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="D56" s="24">
         <v>39384</v>
@@ -35539,10 +35269,10 @@
         <v>19</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="D57" s="24">
         <v>41266</v>
@@ -35556,10 +35286,10 @@
         <v>116</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D58" s="24">
         <v>18722</v>
@@ -35573,10 +35303,10 @@
         <v>14</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D59" s="24">
         <v>20861</v>
@@ -35590,10 +35320,10 @@
         <v>145</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D60" s="24">
         <v>22410</v>
@@ -35607,10 +35337,10 @@
         <v>143</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="D61" s="24">
         <v>24876</v>
@@ -35624,10 +35354,10 @@
         <v>121</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="D62" s="24">
         <v>25561</v>
@@ -35641,10 +35371,10 @@
         <v>187</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="D63" s="24">
         <v>27675</v>
@@ -35658,10 +35388,10 @@
         <v>119</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="D64" s="24">
         <v>27902</v>
@@ -35675,10 +35405,10 @@
         <v>138</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="D65" s="24">
         <v>28305</v>
@@ -35692,10 +35422,10 @@
         <v>8</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="D66" s="24">
         <v>31658</v>
@@ -35709,10 +35439,10 @@
         <v>153</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="D67" s="24">
         <v>31984</v>
@@ -35726,10 +35456,10 @@
         <v>80</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="D68" s="24">
         <v>33965</v>
@@ -35743,10 +35473,10 @@
         <v>157</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D69" s="24">
         <v>20984</v>
@@ -35760,10 +35490,10 @@
         <v>155</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D70" s="24">
         <v>21146</v>
@@ -35777,10 +35507,10 @@
         <v>20</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D71" s="24">
         <v>22327</v>
@@ -35794,10 +35524,10 @@
         <v>77</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="D72" s="24">
         <v>26569</v>
@@ -35811,10 +35541,10 @@
         <v>54</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="D73" s="24">
         <v>30916</v>
@@ -35828,10 +35558,10 @@
         <v>149</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="D74" s="24">
         <v>32802</v>
@@ -35845,10 +35575,10 @@
         <v>177</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D75" s="24">
         <v>22765</v>
@@ -35862,10 +35592,10 @@
         <v>91</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="D76" s="24">
         <v>25773</v>
@@ -35879,10 +35609,10 @@
         <v>68</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="D77" s="24">
         <v>29633</v>
@@ -35896,10 +35626,10 @@
         <v>63</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D78" s="24">
         <v>18140</v>
@@ -35913,10 +35643,10 @@
         <v>140</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="D79" s="24">
         <v>31784</v>
@@ -35930,10 +35660,10 @@
         <v>28</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="D80" s="24">
         <v>33191</v>
@@ -35947,10 +35677,10 @@
         <v>56</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D81" s="24">
         <v>19036</v>
@@ -35964,10 +35694,10 @@
         <v>126</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="D82" s="24">
         <v>23935</v>
@@ -35981,10 +35711,10 @@
         <v>10</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="D83" s="24">
         <v>24451</v>
@@ -35998,10 +35728,10 @@
         <v>112</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="D84" s="24">
         <v>25382</v>
@@ -36015,10 +35745,10 @@
         <v>129</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="D85" s="24">
         <v>26343</v>
@@ -36032,10 +35762,10 @@
         <v>58</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="D86" s="24">
         <v>17827</v>
@@ -36049,10 +35779,10 @@
         <v>50</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D87" s="24">
         <v>18737</v>
@@ -36066,10 +35796,10 @@
         <v>147</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="D88" s="24">
         <v>26789</v>
@@ -36083,10 +35813,10 @@
         <v>30</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="D89" s="24">
         <v>27605</v>
@@ -36100,10 +35830,10 @@
         <v>185</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="D90" s="24">
         <v>27912</v>
@@ -36117,10 +35847,10 @@
         <v>34</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="D91" s="24">
         <v>29962</v>
@@ -36134,10 +35864,10 @@
         <v>105</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="D92" s="24">
         <v>30055</v>
@@ -36170,15 +35900,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="B2" t="s">
         <v>299</v>
@@ -36186,31 +35916,31 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>301</v>
@@ -36239,13 +35969,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>315</v>
@@ -36253,212 +35983,212 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -36483,123 +36213,123 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -36611,7 +36341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F065BD72-3E3A-4ACC-9664-2066199427CC}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -36622,14 +36352,14 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="44">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -36637,7 +36367,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="46">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -36645,7 +36375,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="44">
+      <c r="A4" s="27">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -36653,7 +36383,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="45">
+      <c r="A5" s="28">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -36664,7 +36394,7 @@
       <c r="A6" s="26"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -36691,19 +36421,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>0</v>
@@ -36715,10 +36445,10 @@
         <v>324</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -36729,13 +36459,13 @@
         <v>129</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="F2" s="23">
         <v>42186</v>
@@ -36751,7 +36481,7 @@
         <v>43.405479452054792</v>
       </c>
       <c r="J2">
-        <f>H2-F2</f>
+        <f t="shared" ref="J2:J33" si="0">H2-F2</f>
         <v>54</v>
       </c>
     </row>
@@ -36763,13 +36493,13 @@
         <v>80</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="F3" s="23">
         <v>42187</v>
@@ -36785,7 +36515,7 @@
         <v>22.526027397260275</v>
       </c>
       <c r="J3">
-        <f>H3-F3</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -36797,13 +36527,13 @@
         <v>50</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="F4" s="23">
         <v>42189</v>
@@ -36819,7 +36549,7 @@
         <v>64.252054794520546</v>
       </c>
       <c r="J4">
-        <f>H4-F4</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -36831,13 +36561,13 @@
         <v>177</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="F5" s="23">
         <v>42196</v>
@@ -36853,7 +36583,7 @@
         <v>53.235616438356168</v>
       </c>
       <c r="J5">
-        <f>H5-F5</f>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
     </row>
@@ -36865,13 +36595,13 @@
         <v>149</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="F6" s="23">
         <v>42198</v>
@@ -36887,7 +36617,7 @@
         <v>25.742465753424657</v>
       </c>
       <c r="J6">
-        <f>H6-F6</f>
+        <f t="shared" si="0"/>
         <v>82</v>
       </c>
     </row>
@@ -36899,13 +36629,13 @@
         <v>87</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F7" s="23">
         <v>42219</v>
@@ -36921,7 +36651,7 @@
         <v>47.528767123287672</v>
       </c>
       <c r="J7">
-        <f>H7-F7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -36933,13 +36663,13 @@
         <v>58</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="F8" s="23">
         <v>42231</v>
@@ -36955,7 +36685,7 @@
         <v>66.860273972602741</v>
       </c>
       <c r="J8">
-        <f>H8-F8</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -36967,13 +36697,13 @@
         <v>30</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F9" s="23">
         <v>42233</v>
@@ -36989,7 +36719,7 @@
         <v>40.076712328767123</v>
       </c>
       <c r="J9">
-        <f>H9-F9</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
@@ -37001,13 +36731,13 @@
         <v>95</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="F10" s="23">
         <v>42234</v>
@@ -37023,7 +36753,7 @@
         <v>7.0931506849315067</v>
       </c>
       <c r="J10">
-        <f>H10-F10</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
@@ -37035,13 +36765,13 @@
         <v>72</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F11" s="23">
         <v>42248</v>
@@ -37057,7 +36787,7 @@
         <v>9.868493150684932</v>
       </c>
       <c r="J11">
-        <f>H11-F11</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -37069,13 +36799,13 @@
         <v>134</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F12" s="23">
         <v>42250</v>
@@ -37091,7 +36821,7 @@
         <v>2.3506849315068492</v>
       </c>
       <c r="J12">
-        <f>H12-F12</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
@@ -37103,13 +36833,13 @@
         <v>157</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="F13" s="23">
         <v>42250</v>
@@ -37125,7 +36855,7 @@
         <v>58.263013698630139</v>
       </c>
       <c r="J13">
-        <f>H13-F13</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
@@ -37137,13 +36867,13 @@
         <v>36</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F14" s="23">
         <v>42253</v>
@@ -37159,7 +36889,7 @@
         <v>1.2821917808219179</v>
       </c>
       <c r="J14">
-        <f>H14-F14</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -37171,13 +36901,13 @@
         <v>20</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="F15" s="23">
         <v>42254</v>
@@ -37193,7 +36923,7 @@
         <v>54.594520547945208</v>
       </c>
       <c r="J15">
-        <f>H15-F15</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
     </row>
@@ -37205,13 +36935,13 @@
         <v>132</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F16" s="23">
         <v>42271</v>
@@ -37227,7 +36957,7 @@
         <v>-0.28493150684931506</v>
       </c>
       <c r="J16">
-        <f>H16-F16</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -37239,13 +36969,13 @@
         <v>48</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="F17" s="23">
         <v>42279</v>
@@ -37261,7 +36991,7 @@
         <v>48.361643835616441</v>
       </c>
       <c r="J17">
-        <f>H17-F17</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -37273,13 +37003,13 @@
         <v>84</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F18" s="23">
         <v>42293</v>
@@ -37295,7 +37025,7 @@
         <v>11.854794520547944</v>
       </c>
       <c r="J18">
-        <f>H18-F18</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -37307,13 +37037,13 @@
         <v>54</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F19" s="23">
         <v>42300</v>
@@ -37329,7 +37059,7 @@
         <v>31.18904109589041</v>
       </c>
       <c r="J19">
-        <f>H19-F19</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
@@ -37341,13 +37071,13 @@
         <v>67</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="F20" s="23">
         <v>42301</v>
@@ -37363,7 +37093,7 @@
         <v>9.117808219178082</v>
       </c>
       <c r="J20">
-        <f>H20-F20</f>
+        <f t="shared" si="0"/>
         <v>358</v>
       </c>
     </row>
@@ -37375,13 +37105,13 @@
         <v>73</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="F21" s="23">
         <v>42316</v>
@@ -37397,7 +37127,7 @@
         <v>63.758904109589039</v>
       </c>
       <c r="J21">
-        <f>H21-F21</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
@@ -37409,13 +37139,13 @@
         <v>25</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="F22" s="23">
         <v>42317</v>
@@ -37431,7 +37161,7 @@
         <v>4.934246575342466</v>
       </c>
       <c r="J22">
-        <f>H22-F22</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
     </row>
@@ -37443,13 +37173,13 @@
         <v>19</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F23" s="23">
         <v>42318</v>
@@ -37465,7 +37195,7 @@
         <v>2.882191780821918</v>
       </c>
       <c r="J23">
-        <f>H23-F23</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
     </row>
@@ -37477,13 +37207,13 @@
         <v>99</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="F24" s="23">
         <v>42323</v>
@@ -37499,7 +37229,7 @@
         <v>5.5287671232876709</v>
       </c>
       <c r="J24">
-        <f>H24-F24</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
@@ -37511,13 +37241,13 @@
         <v>75</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="F25" s="23">
         <v>42325</v>
@@ -37533,7 +37263,7 @@
         <v>52.805479452054797</v>
       </c>
       <c r="J25">
-        <f>H25-F25</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
@@ -37545,13 +37275,13 @@
         <v>56</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="F26" s="23">
         <v>42325</v>
@@ -37567,7 +37297,7 @@
         <v>63.805479452054797</v>
       </c>
       <c r="J26">
-        <f>H26-F26</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
@@ -37579,13 +37309,13 @@
         <v>126</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="F27" s="23">
         <v>42333</v>
@@ -37601,7 +37331,7 @@
         <v>50.405479452054792</v>
       </c>
       <c r="J27">
-        <f>H27-F27</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
     </row>
@@ -37613,13 +37343,13 @@
         <v>165</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="F28" s="23">
         <v>42340</v>
@@ -37635,7 +37365,7 @@
         <v>28.523287671232875</v>
       </c>
       <c r="J28">
-        <f>H28-F28</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
@@ -37647,13 +37377,13 @@
         <v>172</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F29" s="23">
         <v>42343</v>
@@ -37670,7 +37400,7 @@
         <v>7.4767123287671229</v>
       </c>
       <c r="J29">
-        <f>H29-F29</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
     </row>
@@ -37682,13 +37412,13 @@
         <v>26</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F30" s="23">
         <v>42343</v>
@@ -37704,7 +37434,7 @@
         <v>6.2246575342465755</v>
       </c>
       <c r="J30">
-        <f>H30-F30</f>
+        <f t="shared" si="0"/>
         <v>82</v>
       </c>
     </row>
@@ -37716,13 +37446,13 @@
         <v>77</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="F31" s="23">
         <v>42346</v>
@@ -37738,7 +37468,7 @@
         <v>43.224657534246575</v>
       </c>
       <c r="J31">
-        <f>H31-F31</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
     </row>
@@ -37750,13 +37480,13 @@
         <v>155</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="F32" s="23">
         <v>42371</v>
@@ -37772,7 +37502,7 @@
         <v>58.150684931506852</v>
       </c>
       <c r="J32">
-        <f>H32-F32</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -37784,13 +37514,13 @@
         <v>63</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F33" s="23">
         <v>42372</v>
@@ -37806,7 +37536,7 @@
         <v>66.389041095890406</v>
       </c>
       <c r="J33">
-        <f>H33-F33</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -37818,13 +37548,13 @@
         <v>167</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F34" s="23">
         <v>42375</v>
@@ -37840,7 +37570,7 @@
         <v>50.756164383561647</v>
       </c>
       <c r="J34">
-        <f>H34-F34</f>
+        <f t="shared" ref="J34:J65" si="1">H34-F34</f>
         <v>54</v>
       </c>
     </row>
@@ -37852,13 +37582,13 @@
         <v>114</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F35" s="23">
         <v>42381</v>
@@ -37875,7 +37605,7 @@
         <v>59.142465753424659</v>
       </c>
       <c r="J35">
-        <f>H35-F35</f>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
     </row>
@@ -37887,13 +37617,13 @@
         <v>17</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="F36" s="23">
         <v>42391</v>
@@ -37909,7 +37639,7 @@
         <v>29.219178082191782</v>
       </c>
       <c r="J36">
-        <f>H36-F36</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
     </row>
@@ -37921,13 +37651,13 @@
         <v>71</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="F37" s="23">
         <v>42393</v>
@@ -37943,7 +37673,7 @@
         <v>8.2438356164383571</v>
       </c>
       <c r="J37">
-        <f>H37-F37</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
@@ -37955,13 +37685,13 @@
         <v>143</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F38" s="23">
         <v>42405</v>
@@ -37977,7 +37707,7 @@
         <v>48.024657534246572</v>
       </c>
       <c r="J38">
-        <f>H38-F38</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -37989,13 +37719,13 @@
         <v>145</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="F39" s="23">
         <v>42407</v>
@@ -38011,7 +37741,7 @@
         <v>54.786301369863011</v>
       </c>
       <c r="J39">
-        <f>H39-F39</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -38023,13 +37753,13 @@
         <v>101</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="F40" s="23">
         <v>42414</v>
@@ -38045,7 +37775,7 @@
         <v>11.219178082191782</v>
       </c>
       <c r="J40">
-        <f>H40-F40</f>
+        <f t="shared" si="1"/>
         <v>205</v>
       </c>
     </row>
@@ -38057,13 +37787,13 @@
         <v>105</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F41" s="23">
         <v>42420</v>
@@ -38079,7 +37809,7 @@
         <v>33.876712328767127</v>
       </c>
       <c r="J41">
-        <f>H41-F41</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
     </row>
@@ -38091,13 +37821,13 @@
         <v>185</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="F42" s="23">
         <v>42421</v>
@@ -38113,7 +37843,7 @@
         <v>39.750684931506846</v>
       </c>
       <c r="J42">
-        <f>H42-F42</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
     </row>
@@ -38125,13 +37855,13 @@
         <v>42</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F43" s="23">
         <v>42424</v>
@@ -38147,7 +37877,7 @@
         <v>10.764383561643836</v>
       </c>
       <c r="J43">
-        <f>H43-F43</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
@@ -38159,13 +37889,13 @@
         <v>93</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F44" s="23">
         <v>42437</v>
@@ -38181,7 +37911,7 @@
         <v>29.895890410958906</v>
       </c>
       <c r="J44">
-        <f>H44-F44</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
     </row>
@@ -38193,13 +37923,13 @@
         <v>45</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F45" s="23">
         <v>42449</v>
@@ -38215,7 +37945,7 @@
         <v>30.276712328767122</v>
       </c>
       <c r="J45">
-        <f>H45-F45</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -38227,13 +37957,13 @@
         <v>34</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F46" s="23">
         <v>42449</v>
@@ -38249,7 +37979,7 @@
         <v>34.210958904109589</v>
       </c>
       <c r="J46">
-        <f>H46-F46</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
     </row>
@@ -38261,13 +37991,13 @@
         <v>14</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F47" s="23">
         <v>42454</v>
@@ -38283,7 +38013,7 @@
         <v>59.158904109589038</v>
       </c>
       <c r="J47">
-        <f>H47-F47</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
@@ -38295,13 +38025,13 @@
         <v>38</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="F48" s="23">
         <v>42455</v>
@@ -38317,7 +38047,7 @@
         <v>67.868493150684927</v>
       </c>
       <c r="J48">
-        <f>H48-F48</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
     </row>
@@ -38329,13 +38059,13 @@
         <v>159</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F49" s="23">
         <v>42457</v>
@@ -38351,7 +38081,7 @@
         <v>63.838356164383562</v>
       </c>
       <c r="J49">
-        <f>H49-F49</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
     </row>
@@ -38363,13 +38093,13 @@
         <v>138</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F50" s="23">
         <v>42457</v>
@@ -38385,7 +38115,7 @@
         <v>38.772602739726025</v>
       </c>
       <c r="J50">
-        <f>H50-F50</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -38397,13 +38127,13 @@
         <v>28</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="F51" s="23">
         <v>42469</v>
@@ -38419,7 +38149,7 @@
         <v>25.419178082191781</v>
       </c>
       <c r="J51">
-        <f>H51-F51</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
     </row>
@@ -38431,13 +38161,13 @@
         <v>52</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F52" s="23">
         <v>42472</v>
@@ -38453,7 +38183,7 @@
         <v>54.063013698630137</v>
       </c>
       <c r="J52">
-        <f>H52-F52</f>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
     </row>
@@ -38465,13 +38195,13 @@
         <v>68</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="F53" s="23">
         <v>42476</v>
@@ -38487,7 +38217,7 @@
         <v>35.186301369863017</v>
       </c>
       <c r="J53">
-        <f>H53-F53</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -38499,13 +38229,13 @@
         <v>119</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="F54" s="23">
         <v>42478</v>
@@ -38521,7 +38251,7 @@
         <v>39.934246575342463</v>
       </c>
       <c r="J54">
-        <f>H54-F54</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
     </row>
@@ -38533,13 +38263,13 @@
         <v>91</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F55" s="23">
         <v>42478</v>
@@ -38555,7 +38285,7 @@
         <v>45.767123287671232</v>
       </c>
       <c r="J55">
-        <f>H55-F55</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
@@ -38567,13 +38297,13 @@
         <v>10</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="F56" s="23">
         <v>42478</v>
@@ -38589,7 +38319,7 @@
         <v>49.389041095890413</v>
       </c>
       <c r="J56">
-        <f>H56-F56</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
@@ -38601,13 +38331,13 @@
         <v>110</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F57" s="23">
         <v>42479</v>
@@ -38623,7 +38353,7 @@
         <v>35.794520547945204</v>
       </c>
       <c r="J57">
-        <f>H57-F57</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
     </row>
@@ -38635,13 +38365,13 @@
         <v>104</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="F58" s="23">
         <v>42480</v>
@@ -38657,7 +38387,7 @@
         <v>5.3205479452054796</v>
       </c>
       <c r="J58">
-        <f>H58-F58</f>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
@@ -38669,13 +38399,13 @@
         <v>147</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F59" s="23">
         <v>42486</v>
@@ -38691,7 +38421,7 @@
         <v>43.005479452054793</v>
       </c>
       <c r="J59">
-        <f>H59-F59</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
     </row>
@@ -38703,13 +38433,13 @@
         <v>153</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F60" s="23">
         <v>42488</v>
@@ -38725,7 +38455,7 @@
         <v>28.778082191780822</v>
       </c>
       <c r="J60">
-        <f>H60-F60</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
     </row>
@@ -38737,13 +38467,13 @@
         <v>136</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="F61" s="23">
         <v>42492</v>
@@ -38759,7 +38489,7 @@
         <v>65.813698630136983</v>
       </c>
       <c r="J61">
-        <f>H61-F61</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
     </row>
@@ -38771,13 +38501,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="F62" s="23">
         <v>42494</v>
@@ -38793,7 +38523,7 @@
         <v>29.687671232876713</v>
       </c>
       <c r="J62">
-        <f>H62-F62</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
@@ -38805,13 +38535,13 @@
         <v>65</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="F63" s="23">
         <v>42525</v>
@@ -38827,7 +38557,7 @@
         <v>46.087671232876716</v>
       </c>
       <c r="J63">
-        <f>H63-F63</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -38839,13 +38569,13 @@
         <v>121</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F64" s="23">
         <v>42536</v>
@@ -38862,7 +38592,7 @@
         <v>46.506849315068493</v>
       </c>
       <c r="J64">
-        <f>H64-F64</f>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
     </row>
@@ -38874,13 +38604,13 @@
         <v>175</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="F65" s="23">
         <v>42537</v>
@@ -38896,7 +38626,7 @@
         <v>36.838356164383562</v>
       </c>
       <c r="J65">
-        <f>H65-F65</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
     </row>
@@ -38908,13 +38638,13 @@
         <v>97</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F66" s="23">
         <v>42539</v>
@@ -38930,7 +38660,7 @@
         <v>38.419178082191777</v>
       </c>
       <c r="J66">
-        <f>H66-F66</f>
+        <f t="shared" ref="J66:J92" si="2">H66-F66</f>
         <v>35</v>
       </c>
     </row>
@@ -38942,13 +38672,13 @@
         <v>140</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="F67" s="23">
         <v>42540</v>
@@ -38964,7 +38694,7 @@
         <v>29.468493150684932</v>
       </c>
       <c r="J67">
-        <f>H67-F67</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
     </row>
@@ -38976,13 +38706,13 @@
         <v>27</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="F68" s="23">
         <v>42543</v>
@@ -38998,7 +38728,7 @@
         <v>10.087671232876712</v>
       </c>
       <c r="J68">
-        <f>H68-F68</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
@@ -39010,13 +38740,13 @@
         <v>174</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F69" s="23">
         <v>42544</v>
@@ -39032,7 +38762,7 @@
         <v>4.904109589041096</v>
       </c>
       <c r="J69">
-        <f>H69-F69</f>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
     </row>
@@ -39044,13 +38774,13 @@
         <v>12</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F70" s="23">
         <v>42546</v>
@@ -39066,7 +38796,7 @@
         <v>27.134246575342466</v>
       </c>
       <c r="J70">
-        <f>H70-F70</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
     </row>
@@ -39078,13 +38808,13 @@
         <v>43</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="F71" s="23">
         <v>42558</v>
@@ -39100,7 +38830,7 @@
         <v>46.786301369863011</v>
       </c>
       <c r="J71">
-        <f>H71-F71</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
     </row>
@@ -39112,13 +38842,13 @@
         <v>61</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F72" s="23">
         <v>42566</v>
@@ -39134,7 +38864,7 @@
         <v>68.021917808219172</v>
       </c>
       <c r="J72">
-        <f>H72-F72</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
     </row>
@@ -39146,13 +38876,13 @@
         <v>24</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="F73" s="23">
         <v>42570</v>
@@ -39168,7 +38898,7 @@
         <v>11.010958904109589</v>
       </c>
       <c r="J73">
-        <f>H73-F73</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
     </row>
@@ -39180,13 +38910,13 @@
         <v>161</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F74" s="23">
         <v>42572</v>
@@ -39202,7 +38932,7 @@
         <v>53.049315068493151</v>
       </c>
       <c r="J74">
-        <f>H74-F74</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -39214,13 +38944,13 @@
         <v>112</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="F75" s="23">
         <v>42574</v>
@@ -39236,7 +38966,7 @@
         <v>47.101369863013701</v>
       </c>
       <c r="J75">
-        <f>H75-F75</f>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
     </row>
@@ -39248,13 +38978,13 @@
         <v>103</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F76" s="23">
         <v>42591</v>
@@ -39270,7 +39000,7 @@
         <v>64.021917808219172</v>
       </c>
       <c r="J76">
-        <f>H76-F76</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
     </row>
@@ -39282,13 +39012,13 @@
         <v>130</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="F77" s="23">
         <v>42592</v>
@@ -39304,7 +39034,7 @@
         <v>35.038356164383565</v>
       </c>
       <c r="J77">
-        <f>H77-F77</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
     </row>
@@ -39316,13 +39046,13 @@
         <v>85</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="F78" s="23">
         <v>42593</v>
@@ -39338,7 +39068,7 @@
         <v>24.334246575342465</v>
       </c>
       <c r="J78">
-        <f>H78-F78</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
     </row>
@@ -39350,13 +39080,13 @@
         <v>40</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="D79">
         <v>2</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F79" s="23">
         <v>42282</v>
@@ -39372,7 +39102,7 @@
         <v>48.517808219178079</v>
       </c>
       <c r="J79">
-        <f>H79-F79</f>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
     </row>
@@ -39384,13 +39114,13 @@
         <v>191</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="D80">
         <v>2</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="F80" s="23">
         <v>42291</v>
@@ -39406,7 +39136,7 @@
         <v>38.049315068493151</v>
       </c>
       <c r="J80">
-        <f>H80-F80</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
     </row>
@@ -39418,13 +39148,13 @@
         <v>116</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="D81">
         <v>2</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="F81" s="23">
         <v>42373</v>
@@ -39440,7 +39170,7 @@
         <v>64.797260273972597</v>
       </c>
       <c r="J81">
-        <f>H81-F81</f>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
     </row>
@@ -39452,13 +39182,13 @@
         <v>32</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="D82">
         <v>2</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="F82" s="23">
         <v>42402</v>
@@ -39474,7 +39204,7 @@
         <v>26.780821917808218</v>
       </c>
       <c r="J82">
-        <f>H82-F82</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
     </row>
@@ -39486,13 +39216,13 @@
         <v>82</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="D83">
         <v>2</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="F83" s="23">
         <v>42424</v>
@@ -39508,7 +39238,7 @@
         <v>39.416438356164385</v>
       </c>
       <c r="J83">
-        <f>H83-F83</f>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
     </row>
@@ -39520,13 +39250,13 @@
         <v>123</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="D84">
         <v>2</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F84" s="23">
         <v>42458</v>
@@ -39542,7 +39272,7 @@
         <v>11.868493150684932</v>
       </c>
       <c r="J84">
-        <f>H84-F84</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
     </row>
@@ -39554,13 +39284,13 @@
         <v>189</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="D85">
         <v>2</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="F85" s="23">
         <v>42464</v>
@@ -39576,7 +39306,7 @@
         <v>7.5260273972602736</v>
       </c>
       <c r="J85">
-        <f>H85-F85</f>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
     </row>
@@ -39588,13 +39318,13 @@
         <v>22</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="D86">
         <v>2</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F86" s="23">
         <v>42482</v>
@@ -39611,7 +39341,7 @@
         <v>42.547945205479451</v>
       </c>
       <c r="J86">
-        <f>H86-F86</f>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
     </row>
@@ -39623,13 +39353,13 @@
         <v>89</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="D87">
         <v>2</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F87" s="23">
         <v>42516</v>
@@ -39645,7 +39375,7 @@
         <v>42.408219178082192</v>
       </c>
       <c r="J87">
-        <f>H87-F87</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
     </row>
@@ -39657,13 +39387,13 @@
         <v>118</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="D88">
         <v>2</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F88" s="23">
         <v>42565</v>
@@ -39680,7 +39410,7 @@
         <v>11.747945205479452</v>
       </c>
       <c r="J88">
-        <f>H88-F88</f>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
     </row>
@@ -39692,13 +39422,13 @@
         <v>187</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="D89">
         <v>2</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F89" s="23">
         <v>42578</v>
@@ -39715,7 +39445,7 @@
         <v>40.830136986301369</v>
       </c>
       <c r="J89">
-        <f>H89-F89</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
@@ -39727,13 +39457,13 @@
         <v>106</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="D90" s="6">
         <v>3</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F90" s="23">
         <v>42401</v>
@@ -39749,7 +39479,7 @@
         <v>53.361643835616441</v>
       </c>
       <c r="J90">
-        <f>H90-F90</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
@@ -39761,13 +39491,13 @@
         <v>108</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="D91" s="6">
         <v>3</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F91" s="23">
         <v>42434</v>
@@ -39783,7 +39513,7 @@
         <v>54.586301369863016</v>
       </c>
       <c r="J91">
-        <f>H91-F91</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
@@ -39795,13 +39525,13 @@
         <v>163</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="D92" s="6">
         <v>4</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="F92" s="23">
         <v>42250</v>
@@ -39817,7 +39547,7 @@
         <v>39.43287671232877</v>
       </c>
       <c r="J92">
-        <f>H92-F92</f>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
     </row>
